--- a/2.0.0/web/uploads/import_template/goods.xlsx
+++ b/2.0.0/web/uploads/import_template/goods.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/puzhen/2.0.0/web/uploads/import_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D932C-D0F4-5F4C-80B3-2735D0E7FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D12193-C2ED-B444-A53C-40F79A93BD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16060" xr2:uid="{284B7C64-E364-B447-B22F-34EF8E49C7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,30 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品卖点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考零售价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品重量(Kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工厂名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,15 +48,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品卖点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品重量(Kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -455,39 +455,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -501,13 +501,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/2.0.0/web/uploads/import_template/goods.xlsx
+++ b/2.0.0/web/uploads/import_template/goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/puzhen/2.0.0/web/uploads/import_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D12193-C2ED-B444-A53C-40F79A93BD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C579E5-6320-8741-85D8-42EF52AD24B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16060" xr2:uid="{284B7C64-E364-B447-B22F-34EF8E49C7B8}"/>
   </bookViews>
@@ -68,15 +68,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品重量(Kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>茶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品重量(g)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>

--- a/2.0.0/web/uploads/import_template/goods.xlsx
+++ b/2.0.0/web/uploads/import_template/goods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/puzhen/2.0.0/web/uploads/import_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C579E5-6320-8741-85D8-42EF52AD24B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62BC724-116F-EF43-BA3D-F2BB96229CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16060" xr2:uid="{284B7C64-E364-B447-B22F-34EF8E49C7B8}"/>
+    <workbookView xWindow="6500" yWindow="1960" windowWidth="27840" windowHeight="16060" xr2:uid="{284B7C64-E364-B447-B22F-34EF8E49C7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朴真自营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,11 +68,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>茶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品重量(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶泡法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡臣推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -458,36 +458,36 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -501,13 +501,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>2</v>
